--- a/localidadesdimexa.xlsx
+++ b/localidadesdimexa.xlsx
@@ -15,7 +15,7 @@
     <sheet name="DISTRITOS X ZONA" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DISTRITOS X ZONA'!$A$1:$E$381</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DISTRITOS X ZONA'!$A$1:$E$403</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="447">
   <si>
     <t>LLAVE</t>
   </si>
@@ -1416,12 +1416,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1430,7 +1439,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -1438,6 +1447,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1723,11 +1733,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E404"/>
+  <dimension ref="A1:E403"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E400" sqref="E400"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4312,7 +4322,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="str">
-        <f t="shared" ref="A131:A194" si="2">CONCATENATE(B131,D131)</f>
+        <f t="shared" ref="A131:A193" si="2">CONCATENATE(B131,D131)</f>
         <v>PASCOYANACANCHA</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -4640,18 +4650,18 @@
         <v>180</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="str">
+    <row r="152" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="5" t="str">
         <f t="shared" si="2"/>
         <v>HUANCAVELICAACOBAMBA</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="5" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4673,148 +4683,151 @@
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>HUANCAVELICAACOBAMBA</v>
+        <v>PASCOHUARIACA</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PASCOHUARIACA</v>
+        <v>JUNINMATAHUASI</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JUNINMATAHUASI</v>
+        <v>PASCOPALCAZU</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PASCOPALCAZU</v>
+        <v>AYACUCHOSANTA ROSA</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AYACUCHOSANTA ROSA</v>
+        <v>JUNINMOROCOCHA</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>JUNINMOROCOCHA</v>
+        <v>PASCOSIMON BOLIVAR</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>PASCOSIMON BOLIVAR</v>
+        <v>AMAZONASCHACHAPOYAS</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AMAZONASCHACHAPOYAS</v>
+        <v>ANCASHCASMA</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>188</v>
+        <v>5</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ANCASHCASMA</v>
+        <v>ANCASHCHIMBOTE</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ANCASHCHIMBOTE</v>
+        <v>ANCASHNUEVO CHIMBOTE</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>5</v>
@@ -4823,7 +4836,7 @@
         <v>191</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>193</v>
@@ -4832,25 +4845,25 @@
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ANCASHNUEVO CHIMBOTE</v>
+        <v>APURIMACABANCAY</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>193</v>
+        <v>108</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>APURIMACABANCAY</v>
+        <v>APURIMACCURAHUASI</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>195</v>
@@ -4858,47 +4871,47 @@
       <c r="C165" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D165" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>108</v>
+      <c r="D165" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>APURIMACCURAHUASI</v>
+        <v>APURIMACANDAHUAYLAS</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>APURIMACANDAHUAYLAS</v>
+        <v>AREQUIPAALTO SELVA ALEGRE</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AREQUIPAALTO SELVA ALEGRE</v>
+        <v>AREQUIPAAREQUIPA</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>199</v>
@@ -4907,7 +4920,7 @@
         <v>199</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>104</v>
@@ -4916,7 +4929,7 @@
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AREQUIPAAREQUIPA</v>
+        <v>AREQUIPAC. COLORADO</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>199</v>
@@ -4925,7 +4938,7 @@
         <v>199</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>104</v>
@@ -4934,7 +4947,7 @@
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AREQUIPAC. COLORADO</v>
+        <v>AREQUIPACAYMA</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>199</v>
@@ -4943,7 +4956,7 @@
         <v>199</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>104</v>
@@ -4952,7 +4965,7 @@
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AREQUIPACAYMA</v>
+        <v>AREQUIPAJ.L.BUSTAMANTE Y RIVERO</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>199</v>
@@ -4961,7 +4974,7 @@
         <v>199</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>104</v>
@@ -4970,7 +4983,7 @@
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AREQUIPAJ.L.BUSTAMANTE Y RIVERO</v>
+        <v>AREQUIPAJACOBO HUNTER</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>199</v>
@@ -4979,7 +4992,7 @@
         <v>199</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>104</v>
@@ -4988,7 +5001,7 @@
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AREQUIPAJACOBO HUNTER</v>
+        <v>AREQUIPALA JOYA</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>199</v>
@@ -4997,7 +5010,7 @@
         <v>199</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>104</v>
@@ -5006,7 +5019,7 @@
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AREQUIPALA JOYA</v>
+        <v>AREQUIPAM. MELGAR</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>199</v>
@@ -5015,7 +5028,7 @@
         <v>199</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>104</v>
@@ -5024,7 +5037,7 @@
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AREQUIPAM. MELGAR</v>
+        <v>AREQUIPAMIRAFLORES</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>199</v>
@@ -5033,7 +5046,7 @@
         <v>199</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>206</v>
+        <v>62</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>104</v>
@@ -5042,7 +5055,7 @@
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AREQUIPAMIRAFLORES</v>
+        <v>AREQUIPAPAUCARPATA</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>199</v>
@@ -5051,7 +5064,7 @@
         <v>199</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>62</v>
+        <v>207</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>104</v>
@@ -5060,7 +5073,7 @@
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AREQUIPAPAUCARPATA</v>
+        <v>AREQUIPASANTA RITA DE SIGUAS</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>199</v>
@@ -5069,7 +5082,7 @@
         <v>199</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>104</v>
@@ -5078,7 +5091,7 @@
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AREQUIPASANTA RITA DE SIGUAS</v>
+        <v>AREQUIPASOCABAYA</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>199</v>
@@ -5087,7 +5100,7 @@
         <v>199</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>104</v>
@@ -5096,7 +5109,7 @@
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AREQUIPASOCABAYA</v>
+        <v>AREQUIPATIABAYA</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>199</v>
@@ -5105,7 +5118,7 @@
         <v>199</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>104</v>
@@ -5114,7 +5127,7 @@
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AREQUIPATIABAYA</v>
+        <v>AREQUIPAYANAHUARA</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>199</v>
@@ -5123,7 +5136,7 @@
         <v>199</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>104</v>
@@ -5132,7 +5145,7 @@
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AREQUIPAYANAHUARA</v>
+        <v>AREQUIPAYURA</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>199</v>
@@ -5141,7 +5154,7 @@
         <v>199</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>104</v>
@@ -5150,25 +5163,22 @@
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AREQUIPAYURA</v>
+        <v>AREQUIPACAMANA</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AREQUIPACAMANA</v>
+        <v>AREQUIPAOCOÑA</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>199</v>
@@ -5177,28 +5187,28 @@
         <v>213</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AREQUIPAOCOÑA</v>
+        <v>AREQUIPAAPLAO</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AREQUIPAAPLAO</v>
+        <v>AREQUIPAURACA</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>199</v>
@@ -5207,43 +5217,43 @@
         <v>215</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AREQUIPAURACA</v>
+        <v>AREQUIPAMAJES</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AREQUIPAMAJES</v>
+        <v>AREQUIPAISLAY</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AREQUIPAISLAY</v>
+        <v>AREQUIPAMOLLENDO</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>199</v>
@@ -5252,139 +5262,142 @@
         <v>220</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AREQUIPAMOLLENDO</v>
+        <v>AREQUIPACOTAHUASI</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AREQUIPACOTAHUASI</v>
+        <v>CAJAMARCACAJAMARCA</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>CAJAMARCACAJAMARCA</v>
+        <v>CAJAMARCACELENDIN</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>111</v>
+        <v>225</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>CAJAMARCACELENDIN</v>
+        <v>CAJAMARCABAMBAMARCA</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>CAJAMARCABAMBAMARCA</v>
+        <v>CAJAMARCAJAEN</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>CAJAMARCAJAEN</v>
+        <f t="shared" ref="A194:A257" si="3">CONCATENATE(B194,D194)</f>
+        <v>CAJAMARCASAN IGNACIO</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="str">
-        <f t="shared" ref="A195:A258" si="3">CONCATENATE(B195,D195)</f>
-        <v>CAJAMARCASAN IGNACIO</v>
+        <f t="shared" si="3"/>
+        <v>CAJAMARCASAN MIGUEL</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>230</v>
+        <v>72</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>230</v>
+        <v>72</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CAJAMARCASAN MIGUEL</v>
+        <v>CUSCOCALCA</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>72</v>
+        <v>231</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CUSCOCALCA</v>
+        <v>CUSCOPISAC</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>167</v>
@@ -5393,7 +5406,7 @@
         <v>231</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>108</v>
@@ -5402,40 +5415,40 @@
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CUSCOPISAC</v>
+        <v>CUSCOSICUANI</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>108</v>
+        <v>234</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CUSCOSICUANI</v>
+        <v>CUSCOCUSCO</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>234</v>
+        <v>167</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CUSCOCUSCO</v>
+        <v>CUSCOSAN JERONIMO</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>167</v>
@@ -5444,7 +5457,7 @@
         <v>167</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>108</v>
@@ -5453,7 +5466,7 @@
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CUSCOSAN JERONIMO</v>
+        <v>CUSCOSAN SEBASTIAN</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>167</v>
@@ -5462,7 +5475,7 @@
         <v>167</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>108</v>
@@ -5471,7 +5484,7 @@
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CUSCOSAN SEBASTIAN</v>
+        <v>CUSCOSANTIAGO</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>167</v>
@@ -5480,7 +5493,7 @@
         <v>167</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>108</v>
@@ -5489,7 +5502,7 @@
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CUSCOSANTIAGO</v>
+        <v>CUSCOWANCHAQ</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>167</v>
@@ -5498,7 +5511,7 @@
         <v>167</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>108</v>
@@ -5507,40 +5520,37 @@
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CUSCOWANCHAQ</v>
+        <v>CUSCOESPINAR</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>108</v>
+        <v>238</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CUSCOESPINAR</v>
+        <v>CUSCOHUAYOPATA</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CUSCOHUAYOPATA</v>
+        <v>CUSCOSANTA ANA</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>167</v>
@@ -5549,13 +5559,13 @@
         <v>168</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CUSCOSANTA ANA</v>
+        <v>CUSCOSANTA TERESA</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>167</v>
@@ -5564,61 +5574,64 @@
         <v>168</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CUSCOSANTA TERESA</v>
+        <v>CUSCOURUBAMBA</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>168</v>
+        <v>242</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CUSCOURUBAMBA</v>
+        <v>HUANCAVELICAHUANDO</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>242</v>
+        <v>118</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>108</v>
+        <v>243</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>HUANCAVELICAHUANDO</v>
+        <v>JUNINPUCARA</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>JUNINPUCARA</v>
+        <v>JUNINSAN JERONIMO DE TUNAN</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>129</v>
@@ -5627,7 +5640,7 @@
         <v>134</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>124</v>
@@ -5636,70 +5649,70 @@
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>JUNINSAN JERONIMO DE TUNAN</v>
+        <v>LA LIBERTADCHEPEN</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>134</v>
+        <v>247</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>124</v>
+        <v>247</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>LA LIBERTADCHEPEN</v>
+        <v>LA LIBERTADOTUZCO</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>246</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>LA LIBERTADOTUZCO</v>
+        <v>LA LIBERTADHUAMACHUCO</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>246</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>LA LIBERTADHUAMACHUCO</v>
+        <v>LA LIBERTADEL PORVENIR</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>246</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>LA LIBERTADEL PORVENIR</v>
+        <v>LA LIBERTADHUANCHACO</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>246</v>
@@ -5708,7 +5721,7 @@
         <v>251</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>193</v>
@@ -5717,7 +5730,7 @@
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>LA LIBERTADHUANCHACO</v>
+        <v>LA LIBERTADLA ESPERANZA</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>246</v>
@@ -5726,7 +5739,7 @@
         <v>251</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>193</v>
@@ -5735,7 +5748,7 @@
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>LA LIBERTADLA ESPERANZA</v>
+        <v>LA LIBERTADTRUJILLO</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>246</v>
@@ -5744,7 +5757,7 @@
         <v>251</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>193</v>
@@ -5753,16 +5766,16 @@
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>LA LIBERTADTRUJILLO</v>
+        <v>LA LIBERTADCHAO</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>246</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>193</v>
@@ -5771,25 +5784,25 @@
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>LA LIBERTADCHAO</v>
+        <v>LAMBAYEQUECHICLAYO</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>LAMBAYEQUECHICLAYO</v>
+        <v>LAMBAYEQUECHONGOYAPE</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>257</v>
@@ -5798,7 +5811,7 @@
         <v>258</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>111</v>
@@ -5807,7 +5820,7 @@
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>LAMBAYEQUECHONGOYAPE</v>
+        <v>LAMBAYEQUELA VICTORIA</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>257</v>
@@ -5816,7 +5829,7 @@
         <v>258</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>259</v>
+        <v>56</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>111</v>
@@ -5825,7 +5838,7 @@
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>LAMBAYEQUELA VICTORIA</v>
+        <v>LAMBAYEQUELAGUNAS</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>257</v>
@@ -5834,7 +5847,7 @@
         <v>258</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>111</v>
@@ -5843,7 +5856,7 @@
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>LAMBAYEQUELAGUNAS</v>
+        <v>LAMBAYEQUEPATAPO</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>257</v>
@@ -5852,7 +5865,7 @@
         <v>258</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>111</v>
@@ -5861,7 +5874,7 @@
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>LAMBAYEQUEPATAPO</v>
+        <v>LAMBAYEQUEPUCALA</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>257</v>
@@ -5870,7 +5883,7 @@
         <v>258</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>111</v>
@@ -5879,7 +5892,7 @@
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>LAMBAYEQUEPUCALA</v>
+        <v>LAMBAYEQUEREQUE</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>257</v>
@@ -5888,7 +5901,7 @@
         <v>258</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>111</v>
@@ -5897,7 +5910,7 @@
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>LAMBAYEQUEREQUE</v>
+        <v>LAMBAYEQUETUMAN</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>257</v>
@@ -5906,7 +5919,7 @@
         <v>258</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>111</v>
@@ -5915,16 +5928,16 @@
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>LAMBAYEQUETUMAN</v>
+        <v>LAMBAYEQUEJAYANCA</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>111</v>
@@ -5933,7 +5946,7 @@
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>LAMBAYEQUEJAYANCA</v>
+        <v>LAMBAYEQUEMOTUPE</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>257</v>
@@ -5942,7 +5955,7 @@
         <v>257</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>111</v>
@@ -5951,7 +5964,7 @@
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>LAMBAYEQUEMOTUPE</v>
+        <v>LAMBAYEQUETUCUME</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>257</v>
@@ -5960,7 +5973,7 @@
         <v>257</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>111</v>
@@ -5969,94 +5982,94 @@
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>LAMBAYEQUETUCUME</v>
+        <v>LIMARICARDO PALMA</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>257</v>
+        <v>28</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>LIMARICARDO PALMA</v>
+        <v>LORETOYURIMAGUAS</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>28</v>
+        <v>268</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>36</v>
+        <v>269</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>96</v>
+        <v>270</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>LORETOYURIMAGUAS</v>
+        <v>LORETOBARRANCA</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>268</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>270</v>
+        <v>29</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>LORETOBARRANCA</v>
+        <v>MADRE DE DIOSTAMBOPATA</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>29</v>
+        <v>273</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>MADRE DE DIOSTAMBOPATA</v>
+        <v>MOQUEGUAILO</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>MOQUEGUAILO</v>
+        <v>MOQUEGUAMOQUEGUA</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>274</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>104</v>
@@ -6065,64 +6078,64 @@
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>MOQUEGUAMOQUEGUA</v>
+        <v>PIURASUYO</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>104</v>
+        <v>279</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PIURASUYO</v>
+        <v>PIURACHULUCANAS</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>277</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PIURACHULUCANAS</v>
+        <v>PIURAPAITA</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>277</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PIURAPAITA</v>
+        <v>PIURACATACAOS</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>277</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>229</v>
@@ -6131,7 +6144,7 @@
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PIURACATACAOS</v>
+        <v>PIURAPIURA</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>277</v>
@@ -6140,7 +6153,7 @@
         <v>277</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>229</v>
@@ -6149,7 +6162,7 @@
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PIURAPIURA</v>
+        <v>PIURATAMBO GRANDE</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>277</v>
@@ -6158,7 +6171,7 @@
         <v>277</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>229</v>
@@ -6167,7 +6180,7 @@
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PIURATAMBO GRANDE</v>
+        <v>PIURAVEINTISEIS DE OCTUBRE</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>277</v>
@@ -6176,7 +6189,7 @@
         <v>277</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>229</v>
@@ -6185,16 +6198,16 @@
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PIURAVEINTISEIS DE OCTUBRE</v>
+        <v>PIURASULLANA</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>277</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>229</v>
@@ -6203,73 +6216,70 @@
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PIURASULLANA</v>
+        <v>PUNOMACUSANI</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>277</v>
+        <v>105</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PUNOMACUSANI</v>
+        <v>PUNOAYAVIRI</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PUNOAYAVIRI</v>
+        <v>PUNOPUNO</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>289</v>
+        <v>105</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>290</v>
+        <v>105</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PUNOPUNO</v>
+        <v>PUNOANANEA</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>105</v>
+        <v>291</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>108</v>
+        <v>292</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PUNOANANEA</v>
+        <v>PUNOPUTINA</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>105</v>
@@ -6278,43 +6288,43 @@
         <v>291</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>PUNOPUTINA</v>
+        <v>SAN MARTINBELLAVISTA</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>293</v>
+        <v>78</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>SAN MARTINBELLAVISTA</v>
+        <v>SAN MARTINMOYOBAMBA</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>78</v>
+        <v>294</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>SAN MARTINMOYOBAMBA</v>
+        <v>SAN MARTINSORITOR</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>109</v>
@@ -6323,28 +6333,28 @@
         <v>294</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>SAN MARTINSORITOR</v>
+        <v>SAN MARTINNUEVA CAJAMARCA</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>SAN MARTINNUEVA CAJAMARCA</v>
+        <v>SAN MARTINRIOJA</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>109</v>
@@ -6353,28 +6363,28 @@
         <v>296</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>SAN MARTINRIOJA</v>
+        <v>SAN MARTINCHAZUTA</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>296</v>
+        <v>109</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>SAN MARTINCHAZUTA</v>
+        <v>SAN MARTINMORALES</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>109</v>
@@ -6383,43 +6393,46 @@
         <v>109</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>SAN MARTINMORALES</v>
+        <v>TACNACANDARAVE</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>109</v>
+        <v>300</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>TACNACANDARAVE</v>
+        <f t="shared" ref="A258:A322" si="4">CONCATENATE(B258,D258)</f>
+        <v>TACNAALTO DE LA ALIANZA</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>300</v>
+        <v>103</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="str">
-        <f t="shared" ref="A259:A323" si="4">CONCATENATE(B259,D259)</f>
-        <v>TACNAALTO DE LA ALIANZA</v>
+        <f t="shared" si="4"/>
+        <v>TACNACIUDAD NUEVA</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>103</v>
@@ -6428,7 +6441,7 @@
         <v>103</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>104</v>
@@ -6437,7 +6450,7 @@
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>TACNACIUDAD NUEVA</v>
+        <v>TACNACORONEL GREG. ALB. LANCHIPA</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>103</v>
@@ -6446,7 +6459,7 @@
         <v>103</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>104</v>
@@ -6455,7 +6468,7 @@
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>TACNACORONEL GREG. ALB. LANCHIPA</v>
+        <v>TACNAPOCOLLAY</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>103</v>
@@ -6464,7 +6477,7 @@
         <v>103</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>104</v>
@@ -6473,34 +6486,34 @@
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>TACNAPOCOLLAY</v>
+        <v>TUMBESCANOAS DE PUNTA SAL</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>103</v>
+        <v>305</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>103</v>
+        <v>306</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>104</v>
+        <v>229</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>TUMBESCANOAS DE PUNTA SAL</v>
+        <v>TUMBESZARUMILLA</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>305</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>229</v>
@@ -6509,157 +6522,157 @@
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>TUMBESZARUMILLA</v>
+        <v>ICAINDEPENDENCIA</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>305</v>
+        <v>15</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>308</v>
+        <v>25</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>308</v>
+        <v>53</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>229</v>
+        <v>15</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>ICAINDEPENDENCIA</v>
+        <v>LA LIBERTADVICTOR LARCO HERRERA</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>15</v>
+        <v>246</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>53</v>
+        <v>309</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>15</v>
+        <v>193</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>LA LIBERTADVICTOR LARCO HERRERA</v>
+        <v>LA LIBERTADGUADALUPE</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>246</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>193</v>
+        <v>311</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>LA LIBERTADGUADALUPE</v>
+        <v>LA LIBERTADLAREDO</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>246</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>310</v>
+        <v>251</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>LA LIBERTADLAREDO</v>
+        <v>LAMBAYEQUEPOMALCA</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>LAMBAYEQUEPOMALCA</v>
+        <v>CAJAMARCACHOTA</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>258</v>
+        <v>314</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>111</v>
+        <v>314</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>CAJAMARCACHOTA</v>
+        <v>AMAZONASSAN NICOLAS</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>AMAZONASSAN NICOLAS</v>
+        <v>CAJAMARCASOCOTA</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>CAJAMARCASOCOTA</v>
+        <v>LAMBAYEQUEPIMENTEL</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>317</v>
+        <v>258</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>LAMBAYEQUEPIMENTEL</v>
+        <v>LAMBAYEQUESAÑA</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>257</v>
@@ -6668,7 +6681,7 @@
         <v>258</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>111</v>
@@ -6677,154 +6690,154 @@
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>LAMBAYEQUESAÑA</v>
+        <v>SAN MARTINELIAS SOPLIN VARGAS</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>111</v>
+        <v>321</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>SAN MARTINELIAS SOPLIN VARGAS</v>
+        <v>ANCASHSANTA</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>296</v>
+        <v>191</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>ANCASHSANTA</v>
+        <v>LAMBAYEQUEETEN</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>5</v>
+        <v>257</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>LAMBAYEQUEETEN</v>
+        <v>PIURAMANCORA</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>258</v>
+        <v>324</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>111</v>
+        <v>229</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PIURAMANCORA</v>
+        <v>LAMBAYEQUEFERREÑAFE</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>229</v>
+        <v>111</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>LAMBAYEQUEFERREÑAFE</v>
+        <v>AMAZONASBAGUA</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>111</v>
+        <v>327</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>AMAZONASBAGUA</v>
+        <v>SAN MARTINPICOTA</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>SAN MARTINPICOTA</v>
+        <v>SAN MARTINJUANJUI</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>SAN MARTINJUANJUI</v>
+        <v>LAMBAYEQUEOYOTUN</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>109</v>
+        <v>257</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>329</v>
+        <v>258</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>LAMBAYEQUEOYOTUN</v>
+        <v>LAMBAYEQUEJOSE LEONARDO ORTIZ</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>257</v>
@@ -6833,7 +6846,7 @@
         <v>258</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>111</v>
@@ -6842,196 +6855,196 @@
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>LAMBAYEQUEJOSE LEONARDO ORTIZ</v>
+        <v>AREQUIPACHARACATO</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>257</v>
+        <v>199</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>258</v>
+        <v>199</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>AREQUIPACHARACATO</v>
+        <v>MOQUEGUASAMEGUA</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>199</v>
+        <v>276</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>104</v>
+        <v>334</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>MOQUEGUASAMEGUA</v>
+        <v>AREQUIPAATICO</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>274</v>
+        <v>199</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>AREQUIPAATICO</v>
+        <v>LIMASANTA EULALIA</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>199</v>
+        <v>28</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>335</v>
+        <v>36</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>336</v>
+        <v>97</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>LIMASANTA EULALIA</v>
+        <v>LIMACHILCA</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>LIMACHILCA</v>
+        <v>AREQUIPAPUNTA DE BOMBON</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>98</v>
+        <v>337</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>AREQUIPAPUNTA DE BOMBON</v>
+        <v>LA LIBERTADFLORENCIA DE MORA</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>LA LIBERTADFLORENCIA DE MORA</v>
+        <v>LA LIBERTADVIRU</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>246</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>LA LIBERTADVIRU</v>
+        <v>APURIMACHUANCARAMA</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>APURIMACHUANCARAMA</v>
+        <v>AREQUIPACOCACHACRA</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>AREQUIPACOCACHACRA</v>
+        <v>AREQUIPASAMUEL PASTOR</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>AREQUIPASAMUEL PASTOR</v>
+        <v>CAJAMARCAMAGDALENA</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>CAJAMARCAMAGDALENA</v>
+        <v>CAJAMARCAASUNCION</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>224</v>
@@ -7040,7 +7053,7 @@
         <v>224</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>111</v>
@@ -7049,97 +7062,97 @@
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>CAJAMARCAASUNCION</v>
+        <v>AMAZONASJAZAN</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>224</v>
+        <v>344</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>111</v>
+        <v>345</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>AMAZONASJAZAN</v>
+        <v>SAN MARTINSAPOSOA</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>SAN MARTINSAPOSOA</v>
+        <v>AMAZONASBAGUA GRANDE</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>AMAZONASBAGUA GRANDE</v>
+        <v>ANCASHNEPEÑA</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>188</v>
+        <v>5</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>229</v>
+        <v>191</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>ANCASHNEPEÑA</v>
+        <v>LAMBAYEQUECAYALTI</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>5</v>
+        <v>257</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>LAMBAYEQUECAYALTI</v>
+        <v>CAJAMARCALOS BAÑOS DEL INCA</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>111</v>
@@ -7148,388 +7161,388 @@
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>CAJAMARCALOS BAÑOS DEL INCA</v>
+        <v>SAN MARTINSAN RAFAEL</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>SAN MARTINSAN RAFAEL</v>
+        <v>PIURAAYABACA</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>109</v>
+        <v>277</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>123</v>
+        <v>278</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PIURAAYABACA</v>
+        <v>MOQUEGUAPACOCHA</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>MOQUEGUAPACOCHA</v>
+        <v>CUSCOCAMANTI</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E306" s="1" t="s">
-        <v>104</v>
+        <v>354</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>CUSCOCAMANTI</v>
+        <v>APURIMACSANTA MARIA DE CHICMO</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>354</v>
+        <v>198</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>APURIMACSANTA MARIA DE CHICMO</v>
+        <v>AREQUIPADEAN VALDIVIA</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>AREQUIPADEAN VALDIVIA</v>
+        <v>CAJAMARCACUTERVO</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>220</v>
+        <v>317</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>CAJAMARCACUTERVO</v>
+        <v>APURIMACCHACOCHE</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>317</v>
+        <v>196</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>APURIMACCHACOCHE</v>
+        <v>CUSCOPAUCARTAMBO</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>196</v>
+        <v>359</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>CUSCOPAUCARTAMBO</v>
+        <v>JUNINHUALHUAS</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>359</v>
+        <v>134</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>JUNINHUALHUAS</v>
+        <v>APURIMACTALAVERA</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>APURIMACTALAVERA</v>
+        <v>ANCASHCARAZ</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>198</v>
+        <v>362</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>ANCASHCARAZ</v>
+        <v>CAJAMARCAPEDRO GALVEZ</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>5</v>
+        <v>224</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>CAJAMARCAPEDRO GALVEZ</v>
+        <v>SAN MARTINSAN JOSE DE SISA</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>SAN MARTINSAN JOSE DE SISA</v>
+        <v>LAMBAYEQUEMONSEFU</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>109</v>
+        <v>257</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>366</v>
+        <v>258</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>LAMBAYEQUEMONSEFU</v>
+        <v>CAJAMARCACAJABAMBA</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>258</v>
+        <v>369</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>111</v>
+        <v>369</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>CAJAMARCACAJABAMBA</v>
+        <v>SAN MARTINSAN PABLO</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>369</v>
+        <v>78</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>SAN MARTINSAN PABLO</v>
+        <v>APURIMACCHALHUANCA</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>78</v>
+        <v>371</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>APURIMACCHALHUANCA</v>
+        <v>PUNODESAGUADERO</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>PUNODESAGUADERO</v>
+        <v>MADRE DE DIOSLAS PIEDRAS</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>105</v>
+        <v>272</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>MADRE DE DIOSLAS PIEDRAS</v>
+        <f t="shared" ref="A323:A386" si="5">CONCATENATE(B323,D323)</f>
+        <v>HUANCAVELICADANIEL HERNANDEZ</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>272</v>
+        <v>118</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>273</v>
+        <v>119</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="str">
-        <f t="shared" ref="A324:A387" si="5">CONCATENATE(B324,D324)</f>
-        <v>HUANCAVELICADANIEL HERNANDEZ</v>
+        <f t="shared" si="5"/>
+        <v>ICALOS AQUIJES</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>ICALOS AQUIJES</v>
+        <v>LA LIBERTADPAIJAN</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>15</v>
+        <v>246</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E325" s="1" t="s">
-        <v>15</v>
+        <v>379</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LA LIBERTADPAIJAN</v>
+        <v>PIURAPARIÑAS</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PIURAPARIÑAS</v>
+        <v>PIURACASTILLA</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>277</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>380</v>
+        <v>215</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>229</v>
@@ -7538,118 +7551,115 @@
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PIURACASTILLA</v>
+        <v>LA LIBERTADASCOPE</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>277</v>
+        <v>378</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>229</v>
+        <v>378</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LA LIBERTADASCOPE</v>
+        <v>TUMBESTUMBES</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>246</v>
+        <v>305</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>378</v>
+        <v>305</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>378</v>
+        <v>305</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>TUMBESTUMBES</v>
+        <v>AMAZONASOMIA</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>305</v>
+        <v>188</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>229</v>
+        <v>381</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>AMAZONASOMIA</v>
+        <v>LA LIBERTADSANTIAGO DE CAO</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LA LIBERTADSANTIAGO DE CAO</v>
+        <v>PIURALOS ORGANOS</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PIURALOS ORGANOS</v>
+        <v>LIMAHUALMAY</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>277</v>
+        <v>28</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>324</v>
+        <v>38</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LIMAHUALMAY</v>
+        <v>AREQUIPASACHACA</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>AREQUIPASACHACA</v>
+        <v>AREQUIPAUCHUMAYO</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>199</v>
@@ -7658,742 +7668,742 @@
         <v>199</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>AREQUIPAUCHUMAYO</v>
+        <v>CUSCOANTA</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>199</v>
+        <v>387</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>CUSCOANTA</v>
+        <v>APURIMACTAMBURCO</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>387</v>
+        <v>196</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>APURIMACTAMBURCO</v>
+        <v>CAJAMARCANAMORA</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>CAJAMARCANAMORA</v>
+        <v>PIURAHUANCABAMBA</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>224</v>
+        <v>390</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PIURAHUANCABAMBA</v>
+        <v>LA LIBERTADSAN PEDRO DE LLOC</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>390</v>
+        <v>310</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LA LIBERTADSAN PEDRO DE LLOC</v>
+        <v>SAN MARTINLA BANDA DE SHILCAYO</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>246</v>
+        <v>109</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>310</v>
+        <v>109</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>SAN MARTINLA BANDA DE SHILCAYO</v>
+        <v>AMAZONASIMAZA</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>109</v>
+        <v>327</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>AMAZONASIMAZA</v>
+        <v>PUNOYUNGUYO</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>188</v>
+        <v>105</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PUNOYUNGUYO</v>
+        <v>APURIMACSAN JERONIMO</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>394</v>
+        <v>198</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>394</v>
+        <v>235</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>APURIMACSAN JERONIMO</v>
+        <v>PUNOCHUCUITO</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>198</v>
+        <v>105</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>235</v>
+        <v>373</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PUNOCHUCUITO</v>
+        <v>PIURALAS LOMAS</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>105</v>
+        <v>277</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>105</v>
+        <v>277</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>108</v>
+        <v>229</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PIURALAS LOMAS</v>
+        <v>ANCASHCABANA</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>277</v>
+        <v>396</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E347" s="1" t="s">
-        <v>229</v>
+        <v>397</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>ANCASHCABANA</v>
+        <v>SAN MARTINSAN HILARION</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>396</v>
+        <v>328</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>SAN MARTINSAN HILARION</v>
+        <v>LAMBAYEQUEILLIMO</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>109</v>
+        <v>257</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>328</v>
+        <v>257</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LAMBAYEQUEILLIMO</v>
+        <v>CAJAMARCAJESUS</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>CAJAMARCAJESUS</v>
+        <v>CUSCOSANTO TOMAS</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>224</v>
+        <v>401</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>111</v>
+        <v>402</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>CUSCOSANTO TOMAS</v>
+        <v>APURIMACKISHUARA</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>401</v>
+        <v>198</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>APURIMACKISHUARA</v>
+        <v>CUSCOCHINCHERO</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>CUSCOCHINCHERO</v>
+        <v>AREQUIPAMARISCAL CACERES</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>404</v>
+        <v>329</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>AREQUIPAMARISCAL CACERES</v>
+        <v>PUNOILAVE</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>213</v>
+        <v>405</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>329</v>
+        <v>406</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PUNOILAVE</v>
+        <v>CUSCOURCOS</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>405</v>
+        <v>354</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>CUSCOURCOS</v>
+        <v>AREQUIPACHALA</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>AREQUIPACHALA</v>
+        <v>SAN MARTINNUEVO PROGRESO</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>335</v>
+        <v>149</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>SAN MARTINNUEVO PROGRESO</v>
+        <v>LIMACERRO AZUL</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LIMACERRO AZUL</v>
+        <v>LA LIBERTADMOCHE</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LA LIBERTADMOCHE</v>
+        <v>LA LIBERTADCHICAMA</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>246</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>251</v>
+        <v>378</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E361" s="1" t="s">
-        <v>193</v>
+        <v>412</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LA LIBERTADCHICAMA</v>
+        <v>CAJAMARCASAN PABLO</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>CAJAMARCASAN PABLO</v>
+        <v>PIURAMORROPON</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>370</v>
+        <v>280</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PIURAMORROPON</v>
+        <v>SAN MARTINPARDO MIGUEL</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>277</v>
+        <v>109</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>280</v>
+        <v>413</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>SAN MARTINPARDO MIGUEL</v>
+        <v>LA LIBERTADPACANGA</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>109</v>
+        <v>246</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LA LIBERTADPACANGA</v>
+        <v>AMAZONASSANTA ROSA</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>247</v>
+        <v>315</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>414</v>
+        <v>79</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>AMAZONASSANTA ROSA</v>
+        <v>CAJAMARCAYONAN</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>315</v>
+        <v>415</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>79</v>
+        <v>416</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>CAJAMARCAYONAN</v>
+        <v>SAN MARTINSAN FERNANDO</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>415</v>
+        <v>296</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>SAN MARTINSAN FERNANDO</v>
+        <v>PIURASECHURA</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>109</v>
+        <v>277</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>296</v>
+        <v>418</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PIURASECHURA</v>
+        <v>ICAVISTA ALEGRE</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>277</v>
+        <v>15</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>418</v>
+        <v>22</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>229</v>
+        <v>419</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>ICAVISTA ALEGRE</v>
+        <v>LIMAPATIVILCA</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LIMAPATIVILCA</v>
+        <v>CUSCOCOYA</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E372" s="1" t="s">
-        <v>7</v>
+        <v>421</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>CUSCOCOYA</v>
+        <v>MADRE DE DIOSIBERIA</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>167</v>
+        <v>272</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>231</v>
+        <v>422</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>MADRE DE DIOSIBERIA</v>
+        <v>PIURACOLAN</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>422</v>
+        <v>282</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PIURACOLAN</v>
+        <v>UCAYALINESHUYA</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>277</v>
+        <v>150</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>282</v>
+        <v>155</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="E375" s="1" t="s">
-        <v>229</v>
+        <v>425</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>UCAYALINESHUYA</v>
+        <v>CUSCOLARES</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>CUSCOLARES</v>
+        <v>PUNOHUANCANE</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>231</v>
+        <v>427</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>PUNOHUANCANE</v>
+        <v>SAN MARTINCACATACHI</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>427</v>
+        <v>109</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>SAN MARTINCACATACHI</v>
+        <v>AMAZONASARAMANGO</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>109</v>
+        <v>327</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>AMAZONASARAMANGO</v>
+        <v>TUMBESCORRALES</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>188</v>
+        <v>305</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>TUMBESCORRALES</v>
+        <v>AREQUIPAJOSE MARIA QUIMPER</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>305</v>
+        <v>199</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>305</v>
+        <v>213</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="E381" s="1" t="s">
-        <v>229</v>
+        <v>431</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>AREQUIPAJOSE MARIA QUIMPER</v>
+        <v>LORETOPUNCHANA</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>199</v>
+        <v>268</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>213</v>
+        <v>432</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LORETOPUNCHANA</v>
+        <v>LORETOIQUITOS</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>268</v>
@@ -8402,13 +8412,13 @@
         <v>432</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LORETOIQUITOS</v>
+        <v>LORETOBELEN</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>268</v>
@@ -8417,52 +8427,55 @@
         <v>432</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LORETOBELEN</v>
+        <v>CAJAMARCAJOSE SABOGAL</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>432</v>
+        <v>364</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>CAJAMARCAJOSE SABOGAL</v>
+        <v>PIURAVICE</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>PIURAVICE</v>
+        <f t="shared" ref="A387:A403" si="6">CONCATENATE(B387,D387)</f>
+        <v>PIURALA ARENA</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>277</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>229</v>
@@ -8470,74 +8483,74 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="str">
-        <f t="shared" ref="A388:A404" si="6">CONCATENATE(B388,D388)</f>
-        <v>PIURALA ARENA</v>
+        <f t="shared" si="6"/>
+        <v>ANCASHINDEPENDENCIA</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>277</v>
+        <v>6</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E388" s="1" t="s">
-        <v>229</v>
+        <v>53</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>ANCASHINDEPENDENCIA</v>
+        <v>PUNOSANDIA</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>6</v>
+        <v>439</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>53</v>
+        <v>439</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PUNOSANDIA</v>
+        <v>ICAGROCIO PRADO</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>439</v>
+        <v>16</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>ICAGROCIO PRADO</v>
+        <v>LAMBAYEQUELAMBAYEQUE</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>15</v>
+        <v>257</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>16</v>
+        <v>257</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>440</v>
+        <v>257</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>LAMBAYEQUELAMBAYEQUE</v>
+        <v>LAMBAYEQUEOLMOS</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>257</v>
@@ -8546,7 +8559,7 @@
         <v>257</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>257</v>
+        <v>441</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>111</v>
@@ -8555,16 +8568,16 @@
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>LAMBAYEQUEOLMOS</v>
+        <v>LAMBAYEQUESANTA ROSA</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>111</v>
@@ -8573,118 +8586,106 @@
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>LAMBAYEQUESANTA ROSA</v>
+        <v>PIURAMIGUEL CHECA</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>111</v>
+        <v>229</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PIURAMIGUEL CHECA</v>
+        <v>TACNACALANA</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>277</v>
+        <v>103</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>286</v>
+        <v>103</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>229</v>
+        <v>104</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>TACNACALANA</v>
+        <v>LIMALUNAHUANA</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>443</v>
+        <v>100</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>LIMALUNAHUANA</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C397" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D397" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E397" s="1" t="s">
-        <v>15</v>
+        <v>PUNOASILLO</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C397" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="398" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>PUNOASILLO</v>
+        <v>AYACUCHOLLOCHEGUA</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C398" s="4" t="s">
-        <v>444</v>
+        <v>112</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="399" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>AYACUCHOLLOCHEGUA</v>
+        <v>LORETOSAN JUAN BAUTISTA</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>112</v>
+        <v>268</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>115</v>
+        <v>432</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>LORETOSAN JUAN BAUTISTA</v>
-      </c>
-      <c r="B400" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C400" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D400" s="3" t="s">
-        <v>114</v>
+        <v/>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
@@ -8705,12 +8706,6 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A404" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/localidadesdimexa.xlsx
+++ b/localidadesdimexa.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="449">
   <si>
     <t>LLAVE</t>
   </si>
@@ -1368,6 +1368,12 @@
   </si>
   <si>
     <t>LLOCHEGUA</t>
+  </si>
+  <si>
+    <t>CONDEBAMBA</t>
+  </si>
+  <si>
+    <t>MEJIA</t>
   </si>
 </sst>
 </file>
@@ -1736,8 +1742,8 @@
   <dimension ref="A1:E403"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E401" sqref="E401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8682,25 +8688,43 @@
         <v>114</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+        <v>CAJAMARCACONDEBAMBA</v>
+      </c>
+      <c r="B400" t="s">
+        <v>224</v>
+      </c>
+      <c r="C400" t="s">
+        <v>369</v>
+      </c>
+      <c r="D400" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+        <v>AREQUIPAMEJIA</v>
+      </c>
+      <c r="B401" t="s">
+        <v>199</v>
+      </c>
+      <c r="C401" t="s">
+        <v>220</v>
+      </c>
+      <c r="D401" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>

--- a/localidadesdimexa.xlsx
+++ b/localidadesdimexa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBarrios\Desktop\SQLDATAEXTRACTOR\rselenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBarrios\Desktop\rselenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="450">
   <si>
     <t>LLAVE</t>
   </si>
@@ -1374,6 +1374,9 @@
   </si>
   <si>
     <t>MEJIA</t>
+  </si>
+  <si>
+    <t>CHAPIMARCA</t>
   </si>
 </sst>
 </file>
@@ -1742,8 +1745,8 @@
   <dimension ref="A1:E403"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E401" sqref="E401"/>
+      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E403" sqref="E403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8703,7 +8706,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="str">
         <f t="shared" si="6"/>
         <v>AREQUIPAMEJIA</v>
@@ -8718,16 +8721,37 @@
         <v>448</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+        <v>APURIMACCHAPIMARCA</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D402" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>LIMANUEVO IMPERIAL</v>
+      </c>
+      <c r="B403" t="s">
+        <v>28</v>
+      </c>
+      <c r="C403" t="s">
+        <v>31</v>
+      </c>
+      <c r="D403" t="s">
+        <v>99</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/localidadesdimexa.xlsx
+++ b/localidadesdimexa.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="452">
   <si>
     <t>LLAVE</t>
   </si>
@@ -1377,6 +1377,12 @@
   </si>
   <si>
     <t>CHAPIMARCA</t>
+  </si>
+  <si>
+    <t>ECHARATE</t>
+  </si>
+  <si>
+    <t>MARANGANI</t>
   </si>
 </sst>
 </file>
@@ -1742,11 +1748,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E403"/>
+  <dimension ref="A1:E406"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E403" sqref="E403"/>
+      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C405" sqref="C405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8474,7 +8480,7 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="str">
-        <f t="shared" ref="A387:A403" si="6">CONCATENATE(B387,D387)</f>
+        <f t="shared" ref="A387:A405" si="6">CONCATENATE(B387,D387)</f>
         <v>PIURALA ARENA</v>
       </c>
       <c r="B387" s="1" t="s">
@@ -8754,6 +8760,39 @@
         <v>15</v>
       </c>
     </row>
+    <row r="404" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>CUSCOECHARATE</v>
+      </c>
+      <c r="B404" t="s">
+        <v>167</v>
+      </c>
+      <c r="C404" t="s">
+        <v>168</v>
+      </c>
+      <c r="D404" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>CUSCOMARANGANI</v>
+      </c>
+      <c r="B405" t="s">
+        <v>167</v>
+      </c>
+      <c r="C405" t="s">
+        <v>233</v>
+      </c>
+      <c r="D405" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B406"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
